--- a/pred_ohlcv/54_21/2020-01-14 IOST ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 IOST ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>1247161.544100001</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>1247327.544100001</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>1228006.9434</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>1176284.2857</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>1176284.2857</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>1169368.126</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>1129515.7293</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>1001834.7293</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>1001834.7293</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>469343.1827000005</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>636927.3473000005</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>645729.7325000005</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -834,7 +834,7 @@
         <v>500189.2155000005</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-3869402.764999999</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-3883142.137899999</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-3548234.469407069</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-3642863.305907069</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-4121262.468407068</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-4121262.468407068</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-4121262.468407068</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-4121262.468407068</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-4121262.468407068</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-4121262.468407068</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-4121262.468407068</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-4121262.468407068</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-4121262.468407068</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-4138111.108307068</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-4138111.108307068</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-4195111.108307068</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-4195321.855407069</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-4180137.975107069</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-14 IOST ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 IOST ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>1247161.544100001</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>1247327.544100001</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>1228006.9434</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>1176284.2857</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>1176284.2857</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>1169368.126</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>1129515.7293</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>1001834.7293</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>1001834.7293</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>469343.1827000005</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>636927.3473000005</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>645729.7325000005</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>645729.7325000005</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>677712.4196000005</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>510629.9777000005</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>500189.2155000005</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-3548234.469407069</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-3669940.954507069</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-3642863.305907069</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-3642863.305907069</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-3522863.305907069</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-3488863.305907069</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-3369315.022207069</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-3369315.022207069</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-3369315.022107069</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-3330160.767207069</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-4121262.468407068</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-4121262.468407068</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-4121262.468407068</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-4121262.468407068</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-4121262.468407068</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-4121262.468407068</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-4121262.468407068</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-4121262.468407068</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-4121262.468407068</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-4138111.108307068</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-4138111.108307068</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-4195111.108307068</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-4195321.855407069</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-4180137.975107069</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
